--- a/data/Results/RunsRaspberryPi3B-Uni-POCL-Load10000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-POCL-Load10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B308DB-1443-4144-9132-E7B221C563EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE762B8A-96E9-4299-A582-64736591FCD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="23">
   <si>
     <t xml:space="preserve">Static </t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>RFS WG 2000 OO</t>
+  </si>
+  <si>
+    <t>Average Execution Time [ms]</t>
+  </si>
+  <si>
+    <t>Execution Time [ms]</t>
   </si>
 </sst>
 </file>
@@ -661,31 +667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>POCL </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -725,6 +706,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -737,7 +729,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$A$1:$A$12</c:f>
+              <c:f>Overall!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -781,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$1:$B$12</c:f>
+              <c:f>Overall!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -826,7 +818,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49A0-4843-A503-F93310866ECD}"/>
+              <c16:uniqueId val="{00000000-ED2F-474C-8794-014F08EC4D58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -840,11 +832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1114713151"/>
-        <c:axId val="1014398335"/>
+        <c:axId val="1305660928"/>
+        <c:axId val="1440874256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1114713151"/>
+        <c:axId val="1305660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +879,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014398335"/>
+        <c:crossAx val="1440874256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014398335"/>
+        <c:axId val="1440874256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +938,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1114713151"/>
+        <c:crossAx val="1305660928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3568,31 +3560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>POCL - Without Serial</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3632,6 +3599,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3644,7 +3622,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$A$3:$A$12</c:f>
+              <c:f>Overall!$A$4:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3682,7 +3660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$3:$B$12</c:f>
+              <c:f>Overall!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3721,7 +3699,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A6D-4142-A219-F0525217E06B}"/>
+              <c16:uniqueId val="{00000000-940E-4561-8818-60D4217133BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3735,11 +3713,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1632964287"/>
-        <c:axId val="1635028991"/>
+        <c:axId val="1448369552"/>
+        <c:axId val="1442169680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1632964287"/>
+        <c:axId val="1448369552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +3760,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635028991"/>
+        <c:crossAx val="1442169680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3790,7 +3768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1635028991"/>
+        <c:axId val="1442169680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3819,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632964287"/>
+        <c:crossAx val="1448369552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3984,14 +3962,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Serial Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Serial Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Serial Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Serial Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Serial Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Serial Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4029,7 +4007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Serial Single Threadded'!$D$1:$D$10</c:f>
+              <c:f>'Serial Single Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4108,14 +4086,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Serial Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Serial Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Serial Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Serial Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Serial Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Serial Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4153,7 +4131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Serial Single Threadded'!$E$1:$E$10</c:f>
+              <c:f>'Serial Single Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15066,22 +15044,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AC7F54-1895-48B4-9E70-346818FAC936}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF543CA-E141-4FF3-885C-1FDEBF9C9367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15101,23 +15079,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="5" name="Diagramm 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B26D711-77A3-4C15-8D7C-CBB589C6D4ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6945EA-0D8E-4E57-A0D3-8BD40ED6407C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15306,16 +15284,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15927,121 +15905,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F86B7-98B9-4243-9ED1-971D4CA61F2D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <f>'Serial Single Threadded'!$E$1</f>
-        <v>12017.6</v>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <f>'Serial Multi Threadded'!E1</f>
-        <v>12315.1</v>
+        <f>'Serial Single Threadded'!$E$2</f>
+        <v>12017.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <f>'Static Single Threadded'!E1</f>
-        <v>107.3</v>
+        <f>'Serial Multi Threadded'!E1</f>
+        <v>12315.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <f>'Static Multi Threadded'!E1</f>
-        <v>102.75</v>
+        <f>'Static Single Threadded'!E1</f>
+        <v>107.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <f>'ASAP Multi Threadded'!$E$1</f>
-        <v>100.3</v>
+        <f>'Static Multi Threadded'!E1</f>
+        <v>102.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <f>'ASAP Single Threadded'!E1</f>
-        <v>103.2</v>
+        <f>'ASAP Multi Threadded'!$E$1</f>
+        <v>100.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <f>'ASAP Single Threadded OO'!E1</f>
-        <v>106.5</v>
+        <f>'ASAP Single Threadded'!E1</f>
+        <v>103.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <f>'ASAP Multi Threadded OO'!E1</f>
-        <v>95.4</v>
+        <f>'ASAP Single Threadded OO'!E1</f>
+        <v>106.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <f>'RFS Single Threadded'!$E$1</f>
-        <v>200.1</v>
+        <f>'ASAP Multi Threadded OO'!E1</f>
+        <v>95.4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <f>'RFS Mutli Threadding'!E1</f>
-        <v>199.4</v>
+        <f>'RFS Single Threadded'!$E$1</f>
+        <v>200.1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <f>'RFS Single Threadded OO'!$E$1</f>
-        <v>197.1</v>
+        <f>'RFS Mutli Threadding'!E1</f>
+        <v>199.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <f>'RFS Single Threadded OO'!$E$1</f>
+        <v>197.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>'RFS Multi Threadding OOE'!$E$1</f>
         <v>205.7</v>
       </c>
@@ -16864,10 +16848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301A2ABE-A860-475F-A95D-755E9998589E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16879,21 +16863,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>13413</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>12017.6</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16907,10 +16881,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13381</v>
+        <v>13413</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -16925,10 +16899,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13322</v>
+        <v>13381</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -16943,10 +16917,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12720</v>
+        <v>13322</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -16961,10 +16935,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>11214</v>
+        <v>12720</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -16979,10 +16953,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11916</v>
+        <v>11214</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -16997,10 +16971,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>11312</v>
+        <v>11916</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -17015,10 +16989,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11203</v>
+        <v>11312</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -17033,10 +17007,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>10715</v>
+        <v>11203</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>
@@ -17051,10 +17025,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>10715</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>12017.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>10980</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>12017.6</v>
       </c>
     </row>

--- a/data/Results/RunsRaspberryPi3B-Uni-POCL-Load10000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-POCL-Load10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE762B8A-96E9-4299-A582-64736591FCD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750ED8D-1CB1-4AE7-A1B8-F18465002348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="23">
   <si>
     <t xml:space="preserve">Static </t>
   </si>
@@ -1002,44 +1002,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>ASAP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>Out Of Order Activated</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1079,6 +1041,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Single Threadded OO'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1094,14 +1067,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Single Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Single Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Single Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Single Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1139,7 +1112,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Single Threadded OO'!$D$1:$D$10</c:f>
+              <c:f>'ASAP Single Threadded OO'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1178,7 +1151,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2168-4CDD-A282-1492853618A8}"/>
+              <c16:uniqueId val="{00000000-11DF-4393-BDCA-49203DF861C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1192,8 +1165,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1110436559"/>
-        <c:axId val="1014417471"/>
+        <c:axId val="543947056"/>
+        <c:axId val="451990400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1201,6 +1174,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Single Threadded OO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1218,14 +1202,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Single Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Single Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Single Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Single Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1263,7 +1247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Single Threadded OO'!$E$1:$E$10</c:f>
+              <c:f>'ASAP Single Threadded OO'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1303,7 +1287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2168-4CDD-A282-1492853618A8}"/>
+              <c16:uniqueId val="{00000001-11DF-4393-BDCA-49203DF861C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1317,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1110436559"/>
-        <c:axId val="1014417471"/>
+        <c:axId val="543947056"/>
+        <c:axId val="451990400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1110436559"/>
+        <c:axId val="543947056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1348,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014417471"/>
+        <c:crossAx val="451990400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014417471"/>
+        <c:axId val="451990400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1407,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110436559"/>
+        <c:crossAx val="543947056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,31 +1502,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Ready Fire Scheduler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,6 +1541,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Single Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1597,14 +1567,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'RFS Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1642,7 +1612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Single Threadded'!$D$1:$D$10</c:f>
+              <c:f>'RFS Single Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1681,7 +1651,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-663C-420C-9320-DC635CC896C2}"/>
+              <c16:uniqueId val="{00000000-E9EF-4ED8-82FA-375F10E58595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1695,8 +1665,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1635310687"/>
-        <c:axId val="1014398751"/>
+        <c:axId val="290502880"/>
+        <c:axId val="544330864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1704,6 +1674,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Single Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1721,14 +1702,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'RFS Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1766,7 +1747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Single Threadded'!$E$1:$E$10</c:f>
+              <c:f>'RFS Single Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1806,7 +1787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-663C-420C-9320-DC635CC896C2}"/>
+              <c16:uniqueId val="{00000001-E9EF-4ED8-82FA-375F10E58595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,11 +1801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1635310687"/>
-        <c:axId val="1014398751"/>
+        <c:axId val="290502880"/>
+        <c:axId val="544330864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1635310687"/>
+        <c:axId val="290502880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1848,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014398751"/>
+        <c:crossAx val="544330864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014398751"/>
+        <c:axId val="544330864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1907,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635310687"/>
+        <c:crossAx val="290502880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2021,44 +2002,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Ready Fire Scheduling</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Out</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Of Order Activated</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2098,6 +2041,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Single Threadded OO'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2113,14 +2067,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Single Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Single Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Single Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'RFS Single Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2158,7 +2112,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Single Threadded OO'!$D$1:$D$10</c:f>
+              <c:f>'RFS Single Threadded OO'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2197,7 +2151,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A881-4DF2-B07B-21B92EC2A1FA}"/>
+              <c16:uniqueId val="{00000000-BBD4-498B-BCE9-353C2E0FAA09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2211,8 +2165,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1112789903"/>
-        <c:axId val="1633066575"/>
+        <c:axId val="538236848"/>
+        <c:axId val="452423120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2220,6 +2174,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Single Threadded OO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2237,14 +2202,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Single Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Single Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Single Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Single Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'RFS Single Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2282,7 +2247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Single Threadded OO'!$E$1:$E$10</c:f>
+              <c:f>'RFS Single Threadded OO'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2322,7 +2287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A881-4DF2-B07B-21B92EC2A1FA}"/>
+              <c16:uniqueId val="{00000001-BBD4-498B-BCE9-353C2E0FAA09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2336,11 +2301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1112789903"/>
-        <c:axId val="1633066575"/>
+        <c:axId val="538236848"/>
+        <c:axId val="452423120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1112789903"/>
+        <c:axId val="538236848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2348,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633066575"/>
+        <c:crossAx val="452423120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1633066575"/>
+        <c:axId val="452423120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2407,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1112789903"/>
+        <c:crossAx val="538236848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2537,35 +2502,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Ready</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Fire Scheduler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2605,6 +2541,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Mutli Threadding'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2620,14 +2567,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Mutli Threadding'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Mutli Threadding'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Mutli Threadding'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Mutli Threadding'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Mutli Threadding'!$A$1:$A$10</c:f>
+              <c:f>'RFS Mutli Threadding'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2665,7 +2612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Mutli Threadding'!$D$1:$D$10</c:f>
+              <c:f>'RFS Mutli Threadding'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2704,7 +2651,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B23-46EB-9712-4765AA4A523C}"/>
+              <c16:uniqueId val="{00000000-F1B6-4311-8E2C-AA6AB08C6157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2718,8 +2665,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1068989535"/>
-        <c:axId val="1635025247"/>
+        <c:axId val="539630064"/>
+        <c:axId val="455943168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2727,6 +2674,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Mutli Threadding'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2744,14 +2702,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Mutli Threadding'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Mutli Threadding'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Mutli Threadding'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Mutli Threadding'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Mutli Threadding'!$A$1:$A$10</c:f>
+              <c:f>'RFS Mutli Threadding'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2789,7 +2747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Mutli Threadding'!$E$1:$E$10</c:f>
+              <c:f>'RFS Mutli Threadding'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2829,7 +2787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B23-46EB-9712-4765AA4A523C}"/>
+              <c16:uniqueId val="{00000001-F1B6-4311-8E2C-AA6AB08C6157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2843,11 +2801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1068989535"/>
-        <c:axId val="1635025247"/>
+        <c:axId val="539630064"/>
+        <c:axId val="455943168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1068989535"/>
+        <c:axId val="539630064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,7 +2848,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1635025247"/>
+        <c:crossAx val="455943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2898,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1635025247"/>
+        <c:axId val="455943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2907,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068989535"/>
+        <c:crossAx val="539630064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3044,44 +3002,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Ready</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Fire Scheduling Workgroup Size: 2000</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>Out Of Order Activated</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3121,6 +3041,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Multi Threadding OOE'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3136,14 +3067,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Multi Threadding OOE'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Multi Threadding OOE'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Multi Threadding OOE'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Multi Threadding OOE'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Multi Threadding OOE'!$A$1:$A$10</c:f>
+              <c:f>'RFS Multi Threadding OOE'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3181,7 +3112,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Multi Threadding OOE'!$D$1:$D$10</c:f>
+              <c:f>'RFS Multi Threadding OOE'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3220,7 +3151,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADC2-4B59-A27F-898EDD7B437F}"/>
+              <c16:uniqueId val="{00000000-78D0-4C07-9E84-425F3DA17545}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3234,8 +3165,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1632963487"/>
-        <c:axId val="1014404575"/>
+        <c:axId val="459938800"/>
+        <c:axId val="451150544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3243,6 +3174,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFS Multi Threadding OOE'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3260,14 +3202,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'RFS Multi Threadding OOE'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'RFS Multi Threadding OOE'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'RFS Multi Threadding OOE'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'RFS Multi Threadding OOE'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'RFS Multi Threadding OOE'!$A$1:$A$10</c:f>
+              <c:f>'RFS Multi Threadding OOE'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3305,7 +3247,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RFS Multi Threadding OOE'!$E$1:$E$10</c:f>
+              <c:f>'RFS Multi Threadding OOE'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3345,7 +3287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADC2-4B59-A27F-898EDD7B437F}"/>
+              <c16:uniqueId val="{00000001-78D0-4C07-9E84-425F3DA17545}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3359,11 +3301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1632963487"/>
-        <c:axId val="1014404575"/>
+        <c:axId val="459938800"/>
+        <c:axId val="451150544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1632963487"/>
+        <c:axId val="459938800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,7 +3348,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014404575"/>
+        <c:crossAx val="451150544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3414,7 +3356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014404575"/>
+        <c:axId val="451150544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3407,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632963487"/>
+        <c:crossAx val="459938800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3883,31 +3825,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Serial Scheduled</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3947,6 +3864,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Serial Single Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4046,7 +3974,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E80F-43DB-98E8-F5E5DF068E4E}"/>
+              <c16:uniqueId val="{00000000-822E-4E3D-994E-9A0330CED198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4060,8 +3988,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="885248415"/>
-        <c:axId val="1061624559"/>
+        <c:axId val="456440272"/>
+        <c:axId val="452500624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4069,6 +3997,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Serial Single Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4171,7 +4110,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E80F-43DB-98E8-F5E5DF068E4E}"/>
+              <c16:uniqueId val="{00000001-822E-4E3D-994E-9A0330CED198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4185,11 +4124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="885248415"/>
-        <c:axId val="1061624559"/>
+        <c:axId val="456440272"/>
+        <c:axId val="452500624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="885248415"/>
+        <c:axId val="456440272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +4171,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061624559"/>
+        <c:crossAx val="452500624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061624559"/>
+        <c:axId val="452500624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="885248415"/>
+        <c:crossAx val="456440272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4386,36 +4325,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Serial Workgroup</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Size 2000</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4455,6 +4364,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Serial Multi Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4470,14 +4390,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Serial Multi Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Serial Multi Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Serial Multi Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Serial Multi Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Serial Multi Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Serial Multi Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4515,7 +4435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Serial Multi Threadded'!$D$1:$D$10</c:f>
+              <c:f>'Serial Multi Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4554,7 +4474,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F78F-4993-8284-3E03B8BD8290}"/>
+              <c16:uniqueId val="{00000000-0760-42E0-A26D-12821EF99141}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4568,8 +4488,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1122757583"/>
-        <c:axId val="1061620399"/>
+        <c:axId val="431198048"/>
+        <c:axId val="546422656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4577,6 +4497,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Serial Multi Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4594,14 +4525,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Serial Multi Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Serial Multi Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Serial Multi Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Serial Multi Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Serial Multi Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Serial Multi Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4639,7 +4570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Serial Multi Threadded'!$E$1:$E$10</c:f>
+              <c:f>'Serial Multi Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4679,7 +4610,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F78F-4993-8284-3E03B8BD8290}"/>
+              <c16:uniqueId val="{00000001-0760-42E0-A26D-12821EF99141}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4693,11 +4624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1122757583"/>
-        <c:axId val="1061620399"/>
+        <c:axId val="431198048"/>
+        <c:axId val="546422656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1122757583"/>
+        <c:axId val="431198048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4740,7 +4671,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061620399"/>
+        <c:crossAx val="546422656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4748,7 +4679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1061620399"/>
+        <c:axId val="546422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4730,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122757583"/>
+        <c:crossAx val="431198048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4914,7 +4845,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Static</a:t>
+              <a:t>Static - Workgroup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Size: 1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>Out of Order Deactivated</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4958,6 +4902,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static Single Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4973,14 +4928,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Static Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Static Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Static Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Static Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Static Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Static Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5018,7 +4973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static Single Threadded'!$D$1:$D$10</c:f>
+              <c:f>'Static Single Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5057,7 +5012,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF2C-4CEB-9925-553DFE8BF8AD}"/>
+              <c16:uniqueId val="{00000000-D9C4-4684-A734-37157E87A6E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5071,8 +5026,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="900811583"/>
-        <c:axId val="1370047007"/>
+        <c:axId val="539457296"/>
+        <c:axId val="546674448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5080,6 +5035,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static Single Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5097,14 +5063,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Static Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'Static Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Static Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'Static Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Static Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'Static Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5142,7 +5108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static Single Threadded'!$E$1:$E$10</c:f>
+              <c:f>'Static Single Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5182,7 +5148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF2C-4CEB-9925-553DFE8BF8AD}"/>
+              <c16:uniqueId val="{00000001-D9C4-4684-A734-37157E87A6E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5196,11 +5162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="900811583"/>
-        <c:axId val="1370047007"/>
+        <c:axId val="539457296"/>
+        <c:axId val="546674448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="900811583"/>
+        <c:axId val="539457296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5209,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370047007"/>
+        <c:crossAx val="546674448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5251,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1370047007"/>
+        <c:axId val="546674448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +5268,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900811583"/>
+        <c:crossAx val="539457296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5397,36 +5363,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Static</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Workgroup Size 2000</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5466,6 +5402,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static Multi Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5481,14 +5428,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$12</c15:sqref>
+                    <c15:sqref>'Static Multi Threadded'!$A$2:$C$13</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$12</c15:sqref>
+                    <c15:sqref>'Static Multi Threadded'!$A$2:$A$13</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Static Multi Threadded'!$A$1:$A$12</c:f>
+              <c:f>'Static Multi Threadded'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5532,7 +5479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static Multi Threadded'!$D$1:$D$12</c:f>
+              <c:f>'Static Multi Threadded'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5577,7 +5524,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B28B-4C59-A6D1-23AA7E9F99D3}"/>
+              <c16:uniqueId val="{00000000-B4B1-43AD-81BB-4CD45C2892E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5591,8 +5538,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="887132399"/>
-        <c:axId val="1629295599"/>
+        <c:axId val="539434096"/>
+        <c:axId val="463101408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5600,6 +5547,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static Multi Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5617,14 +5575,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$C$12</c15:sqref>
+                    <c15:sqref>'Static Multi Threadded'!$A$2:$C$13</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'Static Multi Threadded'!$A$1:$A$12</c15:sqref>
+                    <c15:sqref>'Static Multi Threadded'!$A$2:$A$13</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Static Multi Threadded'!$A$1:$A$12</c:f>
+              <c:f>'Static Multi Threadded'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5668,7 +5626,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Static Multi Threadded'!$E$1:$E$12</c:f>
+              <c:f>'Static Multi Threadded'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5714,7 +5672,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B28B-4C59-A6D1-23AA7E9F99D3}"/>
+              <c16:uniqueId val="{00000001-B4B1-43AD-81BB-4CD45C2892E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5728,11 +5686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="887132399"/>
-        <c:axId val="1629295599"/>
+        <c:axId val="539434096"/>
+        <c:axId val="463101408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="887132399"/>
+        <c:axId val="539434096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,7 +5733,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1629295599"/>
+        <c:crossAx val="463101408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5783,7 +5741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1629295599"/>
+        <c:axId val="463101408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5792,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887132399"/>
+        <c:crossAx val="539434096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5929,31 +5887,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>ASAP Workgroup Size 2000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5993,6 +5926,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Multi Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6008,14 +5952,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Multi Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Multi Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Multi Threadded'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Multi Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6053,7 +5997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Multi Threadded'!$D$1:$D$10</c:f>
+              <c:f>'ASAP Multi Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6092,7 +6036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B743-447E-8717-0D01AB27B61E}"/>
+              <c16:uniqueId val="{00000000-4D00-498A-A31E-670713E8876E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6106,8 +6050,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1370154335"/>
-        <c:axId val="899588383"/>
+        <c:axId val="535519680"/>
+        <c:axId val="546672784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6115,6 +6059,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Multi Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -6132,14 +6087,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Multi Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Multi Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Multi Threadded'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Multi Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6177,7 +6132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Multi Threadded'!$E$1:$E$10</c:f>
+              <c:f>'ASAP Multi Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6217,7 +6172,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B743-447E-8717-0D01AB27B61E}"/>
+              <c16:uniqueId val="{00000001-4D00-498A-A31E-670713E8876E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6231,11 +6186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1370154335"/>
-        <c:axId val="899588383"/>
+        <c:axId val="535519680"/>
+        <c:axId val="546672784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1370154335"/>
+        <c:axId val="535519680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,7 +6233,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="899588383"/>
+        <c:crossAx val="546672784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6286,7 +6241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="899588383"/>
+        <c:axId val="546672784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,7 +6292,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370154335"/>
+        <c:crossAx val="535519680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6432,45 +6387,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>ASAP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Workgroup Size 2000</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>Out Of Order Activated</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6510,6 +6426,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Multi Threadded OO'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6525,14 +6452,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Multi Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Multi Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Multi Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Multi Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6570,7 +6497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Multi Threadded OO'!$D$1:$D$10</c:f>
+              <c:f>'ASAP Multi Threadded OO'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6609,7 +6536,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D26-4DFA-9AC9-12FF0A06AFAA}"/>
+              <c16:uniqueId val="{00000000-73A8-4886-8B77-A8F33293DF3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6623,8 +6550,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="606305503"/>
-        <c:axId val="1118739311"/>
+        <c:axId val="542855184"/>
+        <c:axId val="547776928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6632,6 +6559,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Multi Threadded OO'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -6649,14 +6587,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Multi Threadded OO'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded OO'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Multi Threadded OO'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Multi Threadded OO'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Multi Threadded OO'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Multi Threadded OO'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6694,7 +6632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Multi Threadded OO'!$E$1:$E$10</c:f>
+              <c:f>'ASAP Multi Threadded OO'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6734,7 +6672,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D26-4DFA-9AC9-12FF0A06AFAA}"/>
+              <c16:uniqueId val="{00000001-73A8-4886-8B77-A8F33293DF3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6748,11 +6686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606305503"/>
-        <c:axId val="1118739311"/>
+        <c:axId val="542855184"/>
+        <c:axId val="547776928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="606305503"/>
+        <c:axId val="542855184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,7 +6733,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118739311"/>
+        <c:crossAx val="547776928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6803,7 +6741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1118739311"/>
+        <c:axId val="547776928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6854,7 +6792,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606305503"/>
+        <c:crossAx val="542855184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6949,31 +6887,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>ASAP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7013,6 +6926,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Single Threadded'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7028,14 +6952,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7073,7 +6997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Single Threadded'!$D$1:$D$10</c:f>
+              <c:f>'ASAP Single Threadded'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7112,7 +7036,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5045-457C-8A05-0B290AD9373F}"/>
+              <c16:uniqueId val="{00000000-42C3-47DF-A727-049C1F7FD6F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7126,8 +7050,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1074164207"/>
-        <c:axId val="921841023"/>
+        <c:axId val="546110800"/>
+        <c:axId val="542288832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7135,6 +7059,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ASAP Single Threadded'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Execution Time [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -7152,14 +7087,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ASAP Single Threadded'!$A$1:$C$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded'!$A$2:$C$11</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>'ASAP Single Threadded'!$A$1:$A$10</c15:sqref>
+                    <c15:sqref>'ASAP Single Threadded'!$A$2:$A$11</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ASAP Single Threadded'!$A$1:$A$10</c:f>
+              <c:f>'ASAP Single Threadded'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7197,7 +7132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ASAP Single Threadded'!$E$1:$E$10</c:f>
+              <c:f>'ASAP Single Threadded'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7237,7 +7172,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5045-457C-8A05-0B290AD9373F}"/>
+              <c16:uniqueId val="{00000001-42C3-47DF-A727-049C1F7FD6F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7251,11 +7186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1074164207"/>
-        <c:axId val="921841023"/>
+        <c:axId val="546110800"/>
+        <c:axId val="542288832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1074164207"/>
+        <c:axId val="546110800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7298,7 +7233,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="921841023"/>
+        <c:crossAx val="542288832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7306,7 +7241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="921841023"/>
+        <c:axId val="542288832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,7 +7292,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074164207"/>
+        <c:crossAx val="546110800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15044,15 +14979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15079,16 +15014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15120,23 +15055,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD8B222-7A05-43B9-8C98-27900D9D3235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE2BD05-250C-4747-B7FE-112DEF58A082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15162,22 +15097,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19ECCDF0-6521-46FD-B305-8A252DBFCF19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E659707-7FC2-46D8-A8B7-B99068195152}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15203,22 +15138,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A4F304-E8D6-429F-8A4C-960B43EBC90C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0CB611-92C8-4745-A94B-DFC5DDB94B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15244,22 +15179,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AC680F-8A8A-4E8F-A31C-FE6B26F0D8E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96F115F-F155-4FB8-8710-C6287AB2BE38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15284,23 +15219,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880F00DB-8BFD-476E-B30F-A9F5998D8D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB46831-6C37-4985-B70B-BBC8F19FF38D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15325,23 +15260,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA9B5E1-FED2-4314-AD05-3F685741F3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D466BD-EF0D-48B9-9368-CC72F419E6D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15367,22 +15302,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA62DB83-E369-4797-92C2-CFE0559ADED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF487A4-9EBC-4BBB-BE49-315651260B8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15408,22 +15343,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64A3F6C-A8C6-4DFA-8254-E61CC404A8C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17307B0-CCEF-4FC8-A12A-8CBD9D6D093B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15449,22 +15384,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50433F9-865B-44B3-9064-10E6131469A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954D313F-C06D-449D-AC3D-CBECA6BC3D85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15490,22 +15425,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7079B5-CF4A-445D-AC6E-E17C66F0761E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EB95A4-BC74-4364-BEDC-CBEFDE778186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15530,23 +15465,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95872C24-D7F4-4565-B70D-0307C0FF97B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C0A8C2-2B4D-4B5F-B7BE-BFFB7ECD65A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15571,23 +15506,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDD5887-DE4E-4299-A9F9-E1845297A0DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D62EFB7-8937-4CEE-A342-04211034E69B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15907,8 +15842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F86B7-98B9-4243-9ED1-971D4CA61F2D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15936,7 +15871,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>'Serial Multi Threadded'!E1</f>
+        <f>'Serial Multi Threadded'!E2</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -15945,7 +15880,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>'Static Single Threadded'!E1</f>
+        <f>'Static Single Threadded'!E2</f>
         <v>107.3</v>
       </c>
     </row>
@@ -15954,7 +15889,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>'Static Multi Threadded'!E1</f>
+        <f>'Static Multi Threadded'!E2</f>
         <v>102.75</v>
       </c>
     </row>
@@ -15963,7 +15898,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>'ASAP Multi Threadded'!$E$1</f>
+        <f>'ASAP Multi Threadded'!$E$2</f>
         <v>100.3</v>
       </c>
     </row>
@@ -15972,7 +15907,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>'ASAP Single Threadded'!E1</f>
+        <f>'ASAP Single Threadded'!E2</f>
         <v>103.2</v>
       </c>
     </row>
@@ -15981,7 +15916,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>'ASAP Single Threadded OO'!E1</f>
+        <f>'ASAP Single Threadded OO'!E2</f>
         <v>106.5</v>
       </c>
     </row>
@@ -15990,7 +15925,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>'ASAP Multi Threadded OO'!E1</f>
+        <f>'ASAP Multi Threadded OO'!E2</f>
         <v>95.4</v>
       </c>
     </row>
@@ -15999,7 +15934,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <f>'RFS Single Threadded'!$E$1</f>
+        <f>'RFS Single Threadded'!$E$2</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16008,7 +15943,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <f>'RFS Mutli Threadding'!E1</f>
+        <f>'RFS Mutli Threadding'!E2</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16017,7 +15952,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <f>'RFS Single Threadded OO'!$E$1</f>
+        <f>'RFS Single Threadded OO'!$E$2</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16026,7 +15961,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <f>'RFS Multi Threadding OOE'!$E$1</f>
+        <f>'RFS Multi Threadding OOE'!$E$2</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16038,35 +15973,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F5A4E5-498D-49D6-9524-86B3831C29AB}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>219</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>200.1</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16080,10 +16007,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16098,10 +16025,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16116,10 +16043,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16134,10 +16061,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16155,7 +16082,7 @@
         <v>197</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16173,7 +16100,7 @@
         <v>197</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16191,7 +16118,7 @@
         <v>197</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16206,10 +16133,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16227,7 +16154,25 @@
         <v>198</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
+        <v>200.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>198</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>200.1</v>
       </c>
     </row>
@@ -16239,10 +16184,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C18D9A-C1A0-4E96-A41E-B21478897B7C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16250,26 +16195,16 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>197</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>197.1</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16283,10 +16218,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16301,10 +16236,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16319,10 +16254,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16337,10 +16272,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16355,10 +16290,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16376,7 +16311,7 @@
         <v>193</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16391,10 +16326,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16409,10 +16344,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16427,10 +16362,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>197</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>197.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>196</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>197.1</v>
       </c>
     </row>
@@ -16442,10 +16395,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394DD6D-09F1-42D3-BF6D-93248D5C0E60}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16453,26 +16406,16 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>213</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>199.4</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16486,10 +16429,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16504,10 +16447,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16522,10 +16465,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16540,10 +16483,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16561,7 +16504,7 @@
         <v>196</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16576,10 +16519,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16594,10 +16537,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16612,10 +16555,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16630,10 +16573,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>206</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>199.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>197</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>199.4</v>
       </c>
     </row>
@@ -16645,10 +16606,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B175EB87-16DE-408A-8637-184A750D0C2E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16656,26 +16617,16 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>245</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>205.7</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16689,10 +16640,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16707,10 +16658,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16725,10 +16676,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16743,10 +16694,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16764,7 +16715,7 @@
         <v>193</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16779,10 +16730,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16797,10 +16748,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16815,10 +16766,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16836,7 +16787,25 @@
         <v>197</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>197</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>205.7</v>
       </c>
     </row>
@@ -16850,8 +16819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301A2ABE-A860-475F-A95D-755E9998589E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16859,7 +16828,8 @@
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17058,30 +17028,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F90BCEF-4889-4D70-9D4D-EEB4B30749F4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>12781</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>12315.1</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17095,10 +17059,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12326</v>
+        <v>12781</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17113,10 +17077,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13599</v>
+        <v>12326</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17131,10 +17095,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13177</v>
+        <v>13599</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17149,10 +17113,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12241</v>
+        <v>13177</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17167,10 +17131,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12216</v>
+        <v>12241</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17185,10 +17149,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>11890</v>
+        <v>12216</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17203,10 +17167,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11701</v>
+        <v>11890</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17221,10 +17185,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>11879</v>
+        <v>11701</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17239,10 +17203,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>11879</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>12315.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>11341</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>12315.1</v>
       </c>
     </row>
@@ -17254,10 +17236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17265,26 +17247,16 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>122</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>107.3</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17298,10 +17270,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17316,10 +17288,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17334,10 +17306,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17352,10 +17324,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17373,7 +17345,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17388,10 +17360,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17406,10 +17378,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17424,10 +17396,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17442,10 +17414,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>148</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>107.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>99</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>107.3</v>
       </c>
     </row>
@@ -17457,10 +17447,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787A1EAA-3287-4CE4-8E5E-C6233CCC4169}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17468,26 +17458,16 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>104</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D12)</f>
-        <v>102.75</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17501,10 +17481,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17519,10 +17499,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17537,10 +17517,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17555,10 +17535,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17573,10 +17553,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17591,10 +17571,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17609,10 +17589,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17627,10 +17607,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17648,7 +17628,7 @@
         <v>99</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17663,10 +17643,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17684,7 +17664,25 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <f>AVERAGE(D1:D12)</f>
+        <f>AVERAGE(D2:D13)</f>
+        <v>102.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(D2:D13)</f>
         <v>102.75</v>
       </c>
     </row>
@@ -17696,10 +17694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8B0F7A-5492-4789-B428-105671A23795}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17707,26 +17705,16 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>97</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>100.3</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17743,7 +17731,7 @@
         <v>97</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17758,10 +17746,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17776,10 +17764,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17794,10 +17782,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17812,10 +17800,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17830,10 +17818,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17848,10 +17836,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17866,10 +17854,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17884,10 +17872,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>126</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>98</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>100.3</v>
       </c>
     </row>
@@ -17899,10 +17905,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663D0CA9-0CD9-441C-A3EA-EECC89FBFE9C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17910,26 +17916,16 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>94</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>95.4</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17943,10 +17939,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -17961,10 +17957,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -17979,10 +17975,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -17997,10 +17993,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18018,7 +18014,7 @@
         <v>96</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18036,7 +18032,7 @@
         <v>96</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18051,10 +18047,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18072,7 +18068,7 @@
         <v>94</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18087,10 +18083,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>96</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>95.4</v>
       </c>
     </row>
@@ -18102,10 +18116,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C12A02-838B-40D3-A479-0FE33CCCFF30}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18113,26 +18127,16 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>103</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>103.2</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -18146,10 +18150,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18167,7 +18171,7 @@
         <v>98</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18182,10 +18186,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18200,10 +18204,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18218,10 +18222,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18236,10 +18240,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18254,10 +18258,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18272,10 +18276,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18293,7 +18297,25 @@
         <v>97</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>103.2</v>
       </c>
     </row>
@@ -18305,30 +18327,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF672C1A-93CB-4991-88EB-D74E8906CFB9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>130</v>
-      </c>
-      <c r="E1">
-        <f>AVERAGE(D1:D10)</f>
-        <v>106.5</v>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -18342,10 +18358,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18360,10 +18376,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="E3">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18381,7 +18397,7 @@
         <v>98</v>
       </c>
       <c r="E4">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18399,7 +18415,7 @@
         <v>98</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18414,10 +18430,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18432,10 +18448,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18453,7 +18469,7 @@
         <v>101</v>
       </c>
       <c r="E8">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18468,10 +18484,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(D1:D10)</f>
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
@@ -18486,10 +18502,28 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(D2:D11)</f>
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>96</v>
       </c>
-      <c r="E10">
-        <f>AVERAGE(D1:D10)</f>
+      <c r="E11">
+        <f>AVERAGE(D2:D11)</f>
         <v>106.5</v>
       </c>
     </row>
